--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
@@ -1083,7 +1083,7 @@
         <v>85.26000000000001</v>
       </c>
       <c r="C38">
-        <v>87.51000000000001</v>
+        <v>87.5</v>
       </c>
       <c r="D38">
         <v>96.78</v>
@@ -1103,7 +1103,7 @@
         <v>86.52</v>
       </c>
       <c r="C39">
-        <v>87.48</v>
+        <v>87.47</v>
       </c>
       <c r="D39">
         <v>98.20999999999999</v>
@@ -1120,7 +1120,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="C40">
-        <v>88.36</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="D40">
         <v>98.64</v>
@@ -1137,7 +1137,7 @@
         <v>93.70999999999999</v>
       </c>
       <c r="C41">
-        <v>89.31999999999999</v>
+        <v>89.31</v>
       </c>
       <c r="D41">
         <v>106.37</v>
@@ -1154,7 +1154,7 @@
         <v>84.28</v>
       </c>
       <c r="C42">
-        <v>86.64</v>
+        <v>86.63</v>
       </c>
       <c r="D42">
         <v>95.66</v>
@@ -1188,7 +1188,7 @@
         <v>90.88</v>
       </c>
       <c r="C44">
-        <v>92.23</v>
+        <v>92.22</v>
       </c>
       <c r="D44">
         <v>103.16</v>
@@ -1205,7 +1205,7 @@
         <v>95.69</v>
       </c>
       <c r="C45">
-        <v>91.5</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="D45">
         <v>108.61</v>
@@ -1222,7 +1222,7 @@
         <v>91.20999999999999</v>
       </c>
       <c r="C46">
-        <v>93</v>
+        <v>92.98999999999999</v>
       </c>
       <c r="D46">
         <v>103.53</v>
@@ -1262,7 +1262,7 @@
         <v>90.45999999999999</v>
       </c>
       <c r="C48">
-        <v>91.64</v>
+        <v>91.63</v>
       </c>
       <c r="D48">
         <v>102.68</v>
@@ -1282,7 +1282,7 @@
         <v>99.27</v>
       </c>
       <c r="C49">
-        <v>95.34</v>
+        <v>95.33</v>
       </c>
       <c r="D49">
         <v>112.68</v>
@@ -1302,7 +1302,7 @@
         <v>94.73</v>
       </c>
       <c r="C50">
-        <v>95.23999999999999</v>
+        <v>95.23</v>
       </c>
       <c r="D50">
         <v>107.52</v>
@@ -1322,7 +1322,7 @@
         <v>95.77</v>
       </c>
       <c r="C51">
-        <v>96.70999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D51">
         <v>108.71</v>
@@ -1342,7 +1342,7 @@
         <v>93.97</v>
       </c>
       <c r="C52">
-        <v>96.19</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="D52">
         <v>106.67</v>
@@ -1362,7 +1362,7 @@
         <v>101.23</v>
       </c>
       <c r="C53">
-        <v>97.55</v>
+        <v>97.54000000000001</v>
       </c>
       <c r="D53">
         <v>114.9</v>
@@ -1382,7 +1382,7 @@
         <v>98.37</v>
       </c>
       <c r="C54">
-        <v>100.61</v>
+        <v>100.6</v>
       </c>
       <c r="D54">
         <v>111.65</v>
@@ -1402,7 +1402,7 @@
         <v>97.11</v>
       </c>
       <c r="C55">
-        <v>97.81999999999999</v>
+        <v>97.81</v>
       </c>
       <c r="D55">
         <v>110.23</v>
@@ -1422,7 +1422,7 @@
         <v>98.81999999999999</v>
       </c>
       <c r="C56">
-        <v>100.81</v>
+        <v>100.8</v>
       </c>
       <c r="D56">
         <v>112.17</v>
@@ -1442,7 +1442,7 @@
         <v>104.39</v>
       </c>
       <c r="C57">
-        <v>100.55</v>
+        <v>100.54</v>
       </c>
       <c r="D57">
         <v>118.49</v>
@@ -1482,7 +1482,7 @@
         <v>100.63</v>
       </c>
       <c r="C59">
-        <v>101.58</v>
+        <v>101.57</v>
       </c>
       <c r="D59">
         <v>112.98</v>
@@ -1502,7 +1502,7 @@
         <v>97.51000000000001</v>
       </c>
       <c r="C60">
-        <v>99.06</v>
+        <v>99.08</v>
       </c>
       <c r="D60">
         <v>111.02</v>
@@ -1522,7 +1522,7 @@
         <v>103.35</v>
       </c>
       <c r="C61">
-        <v>99.59999999999999</v>
+        <v>99.59</v>
       </c>
       <c r="D61">
         <v>117.64</v>
@@ -1562,7 +1562,7 @@
         <v>100.96</v>
       </c>
       <c r="C63">
-        <v>102.27</v>
+        <v>102.26</v>
       </c>
       <c r="D63">
         <v>113.58</v>
@@ -1582,7 +1582,7 @@
         <v>97.79000000000001</v>
       </c>
       <c r="C64">
-        <v>98.84999999999999</v>
+        <v>98.83</v>
       </c>
       <c r="D64">
         <v>109.2</v>
@@ -1622,7 +1622,7 @@
         <v>100.31</v>
       </c>
       <c r="C66">
-        <v>100.79</v>
+        <v>100.8</v>
       </c>
       <c r="D66">
         <v>112.43</v>
@@ -1642,7 +1642,7 @@
         <v>98.69</v>
       </c>
       <c r="C67">
-        <v>99.11</v>
+        <v>99.12</v>
       </c>
       <c r="D67">
         <v>110.12</v>
@@ -1662,7 +1662,7 @@
         <v>97.73999999999999</v>
       </c>
       <c r="C68">
-        <v>98.39</v>
+        <v>98.37</v>
       </c>
       <c r="D68">
         <v>109.37</v>
@@ -1702,7 +1702,7 @@
         <v>93.84999999999999</v>
       </c>
       <c r="C70">
-        <v>94.73999999999999</v>
+        <v>94.75</v>
       </c>
       <c r="E70">
         <v>96.16</v>
@@ -1719,10 +1719,10 @@
         <v>96.14</v>
       </c>
       <c r="C71">
-        <v>97.69</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="E71">
-        <v>95.70999999999999</v>
+        <v>95.72</v>
       </c>
       <c r="F71">
         <v>109.35</v>
@@ -1736,7 +1736,7 @@
         <v>100.11</v>
       </c>
       <c r="C72">
-        <v>100.93</v>
+        <v>100.92</v>
       </c>
       <c r="E72">
         <v>96.54000000000001</v>
@@ -1770,7 +1770,7 @@
         <v>100.83</v>
       </c>
       <c r="C74">
-        <v>102.49</v>
+        <v>102.51</v>
       </c>
       <c r="E74">
         <v>97.38</v>
@@ -1784,7 +1784,7 @@
         <v>101.16</v>
       </c>
       <c r="C75">
-        <v>102.15</v>
+        <v>102.16</v>
       </c>
       <c r="E75">
         <v>100.14</v>
@@ -1798,7 +1798,7 @@
         <v>99.54000000000001</v>
       </c>
       <c r="C76">
-        <v>101.31</v>
+        <v>101.27</v>
       </c>
       <c r="E76">
         <v>96.34</v>
@@ -1812,7 +1812,7 @@
         <v>106.27</v>
       </c>
       <c r="C77">
-        <v>102.78</v>
+        <v>102.76</v>
       </c>
       <c r="E77">
         <v>103.49</v>
@@ -1826,7 +1826,7 @@
         <v>98.84</v>
       </c>
       <c r="C78">
-        <v>100.15</v>
+        <v>100.18</v>
       </c>
       <c r="E78">
         <v>97.97</v>
@@ -1840,7 +1840,7 @@
         <v>100.34</v>
       </c>
       <c r="C79">
-        <v>102.24</v>
+        <v>102.22</v>
       </c>
       <c r="E79">
         <v>97.97</v>
@@ -1854,10 +1854,10 @@
         <v>100.63</v>
       </c>
       <c r="C80">
-        <v>102.01</v>
+        <v>101.96</v>
       </c>
       <c r="E80">
-        <v>97.5</v>
+        <v>97.45999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1871,7 +1871,7 @@
         <v>101.53</v>
       </c>
       <c r="E81">
-        <v>100.33</v>
+        <v>100.31</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1882,7 +1882,7 @@
         <v>101.49</v>
       </c>
       <c r="C82">
-        <v>101.78</v>
+        <v>101.83</v>
       </c>
       <c r="E82">
         <v>100.13</v>
@@ -1896,10 +1896,10 @@
         <v>96.06</v>
       </c>
       <c r="C83">
-        <v>97.94</v>
+        <v>97.92</v>
       </c>
       <c r="E83">
-        <v>91.91</v>
+        <v>91.89</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1910,7 +1910,7 @@
         <v>98.43000000000001</v>
       </c>
       <c r="C84">
-        <v>98.98999999999999</v>
+        <v>98.94</v>
       </c>
       <c r="E84">
         <v>97.31999999999999</v>
@@ -1924,7 +1924,7 @@
         <v>105.11</v>
       </c>
       <c r="C85">
-        <v>101.06</v>
+        <v>101.07</v>
       </c>
       <c r="E85">
         <v>103.69</v>
@@ -1938,7 +1938,7 @@
         <v>100.6</v>
       </c>
       <c r="C86">
-        <v>102.11</v>
+        <v>102.15</v>
       </c>
       <c r="E86">
         <v>100.76</v>
@@ -1949,13 +1949,13 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>100.71</v>
+        <v>100.74</v>
       </c>
       <c r="C87">
-        <v>102.84</v>
+        <v>103.03</v>
       </c>
       <c r="E87">
-        <v>102.57</v>
+        <v>102.56</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
@@ -1228,7 +1228,7 @@
         <v>103.53</v>
       </c>
       <c r="E46">
-        <v>91.38</v>
+        <v>91.37</v>
       </c>
       <c r="F46">
         <v>113.19</v>
@@ -1288,7 +1288,7 @@
         <v>112.68</v>
       </c>
       <c r="E49">
-        <v>98.09</v>
+        <v>98.08</v>
       </c>
       <c r="F49">
         <v>113.79</v>
@@ -1308,7 +1308,7 @@
         <v>107.52</v>
       </c>
       <c r="E50">
-        <v>98.43000000000001</v>
+        <v>98.39</v>
       </c>
       <c r="F50">
         <v>116.93</v>
@@ -1328,7 +1328,7 @@
         <v>108.71</v>
       </c>
       <c r="E51">
-        <v>100.31</v>
+        <v>100.3</v>
       </c>
       <c r="F51">
         <v>115.66</v>
@@ -1348,7 +1348,7 @@
         <v>106.67</v>
       </c>
       <c r="E52">
-        <v>99.90000000000001</v>
+        <v>99.89</v>
       </c>
       <c r="F52">
         <v>109.43</v>
@@ -1368,7 +1368,7 @@
         <v>114.9</v>
       </c>
       <c r="E53">
-        <v>105.41</v>
+        <v>105.4</v>
       </c>
       <c r="F53">
         <v>117.91</v>
@@ -1388,7 +1388,7 @@
         <v>111.65</v>
       </c>
       <c r="E54">
-        <v>97.69</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="F54">
         <v>117.33</v>
@@ -1408,7 +1408,7 @@
         <v>110.23</v>
       </c>
       <c r="E55">
-        <v>100.73</v>
+        <v>100.72</v>
       </c>
       <c r="F55">
         <v>115.92</v>
@@ -1428,7 +1428,7 @@
         <v>112.17</v>
       </c>
       <c r="E56">
-        <v>100.05</v>
+        <v>100.04</v>
       </c>
       <c r="F56">
         <v>111.88</v>
@@ -1448,7 +1448,7 @@
         <v>118.49</v>
       </c>
       <c r="E57">
-        <v>103.52</v>
+        <v>103.51</v>
       </c>
       <c r="F57">
         <v>116.91</v>
@@ -1468,7 +1468,7 @@
         <v>112.4</v>
       </c>
       <c r="E58">
-        <v>98.73</v>
+        <v>98.75</v>
       </c>
       <c r="F58">
         <v>115.22</v>
@@ -1548,7 +1548,7 @@
         <v>113.44</v>
       </c>
       <c r="E62">
-        <v>97.09</v>
+        <v>97.08</v>
       </c>
       <c r="F62">
         <v>114.09</v>
@@ -1582,13 +1582,13 @@
         <v>97.79000000000001</v>
       </c>
       <c r="C64">
-        <v>98.83</v>
+        <v>98.84</v>
       </c>
       <c r="D64">
         <v>109.2</v>
       </c>
       <c r="E64">
-        <v>100.79</v>
+        <v>100.78</v>
       </c>
       <c r="F64">
         <v>114.68</v>
@@ -1608,7 +1608,7 @@
         <v>116.3</v>
       </c>
       <c r="E65">
-        <v>103.44</v>
+        <v>103.43</v>
       </c>
       <c r="F65">
         <v>117.95</v>
@@ -1622,7 +1622,7 @@
         <v>100.31</v>
       </c>
       <c r="C66">
-        <v>100.8</v>
+        <v>100.78</v>
       </c>
       <c r="D66">
         <v>112.43</v>
@@ -1662,7 +1662,7 @@
         <v>97.73999999999999</v>
       </c>
       <c r="C68">
-        <v>98.37</v>
+        <v>98.39</v>
       </c>
       <c r="D68">
         <v>109.37</v>
@@ -1688,7 +1688,7 @@
         <v>113.01</v>
       </c>
       <c r="E69">
-        <v>99.86</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="F69">
         <v>111.87</v>
@@ -1702,10 +1702,10 @@
         <v>93.84999999999999</v>
       </c>
       <c r="C70">
-        <v>94.75</v>
+        <v>94.73</v>
       </c>
       <c r="E70">
-        <v>96.16</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="F70">
         <v>113.43</v>
@@ -1719,10 +1719,10 @@
         <v>96.14</v>
       </c>
       <c r="C71">
-        <v>97.68000000000001</v>
+        <v>97.67</v>
       </c>
       <c r="E71">
-        <v>95.72</v>
+        <v>95.70999999999999</v>
       </c>
       <c r="F71">
         <v>109.35</v>
@@ -1736,10 +1736,10 @@
         <v>100.11</v>
       </c>
       <c r="C72">
-        <v>100.92</v>
+        <v>100.93</v>
       </c>
       <c r="E72">
-        <v>96.54000000000001</v>
+        <v>96.53</v>
       </c>
       <c r="F72">
         <v>110.16</v>
@@ -1753,10 +1753,10 @@
         <v>103.85</v>
       </c>
       <c r="C73">
-        <v>100.91</v>
+        <v>100.92</v>
       </c>
       <c r="E73">
-        <v>98.39</v>
+        <v>98.38</v>
       </c>
       <c r="F73">
         <v>114.97</v>
@@ -1770,10 +1770,10 @@
         <v>100.83</v>
       </c>
       <c r="C74">
-        <v>102.51</v>
+        <v>102.47</v>
       </c>
       <c r="E74">
-        <v>97.38</v>
+        <v>97.37</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1784,10 +1784,10 @@
         <v>101.16</v>
       </c>
       <c r="C75">
-        <v>102.16</v>
+        <v>102.14</v>
       </c>
       <c r="E75">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1798,10 +1798,10 @@
         <v>99.54000000000001</v>
       </c>
       <c r="C76">
-        <v>101.27</v>
+        <v>101.3</v>
       </c>
       <c r="E76">
-        <v>96.34</v>
+        <v>96.33</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1812,7 +1812,7 @@
         <v>106.27</v>
       </c>
       <c r="C77">
-        <v>102.76</v>
+        <v>102.77</v>
       </c>
       <c r="E77">
         <v>103.49</v>
@@ -1826,10 +1826,10 @@
         <v>98.84</v>
       </c>
       <c r="C78">
-        <v>100.18</v>
+        <v>100.14</v>
       </c>
       <c r="E78">
-        <v>97.97</v>
+        <v>97.95999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1840,10 +1840,10 @@
         <v>100.34</v>
       </c>
       <c r="C79">
-        <v>102.22</v>
+        <v>102.18</v>
       </c>
       <c r="E79">
-        <v>97.97</v>
+        <v>97.95999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1854,10 +1854,10 @@
         <v>100.63</v>
       </c>
       <c r="C80">
-        <v>101.96</v>
+        <v>102.03</v>
       </c>
       <c r="E80">
-        <v>97.45999999999999</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1868,10 +1868,10 @@
         <v>105.4</v>
       </c>
       <c r="C81">
-        <v>101.53</v>
+        <v>101.54</v>
       </c>
       <c r="E81">
-        <v>100.31</v>
+        <v>100.32</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1882,10 +1882,10 @@
         <v>101.49</v>
       </c>
       <c r="C82">
-        <v>101.83</v>
+        <v>101.79</v>
       </c>
       <c r="E82">
-        <v>100.13</v>
+        <v>100.12</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1896,10 +1896,10 @@
         <v>96.06</v>
       </c>
       <c r="C83">
-        <v>97.92</v>
+        <v>97.87</v>
       </c>
       <c r="E83">
-        <v>91.89</v>
+        <v>91.88</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1907,13 +1907,13 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>98.43000000000001</v>
+        <v>98.42</v>
       </c>
       <c r="C84">
-        <v>98.94</v>
+        <v>99.03</v>
       </c>
       <c r="E84">
-        <v>97.31999999999999</v>
+        <v>97.31</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1924,7 +1924,7 @@
         <v>105.11</v>
       </c>
       <c r="C85">
-        <v>101.07</v>
+        <v>101.06</v>
       </c>
       <c r="E85">
         <v>103.69</v>
@@ -1938,10 +1938,10 @@
         <v>100.6</v>
       </c>
       <c r="C86">
-        <v>102.15</v>
+        <v>102.11</v>
       </c>
       <c r="E86">
-        <v>100.76</v>
+        <v>100.84</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1952,10 +1952,10 @@
         <v>100.74</v>
       </c>
       <c r="C87">
-        <v>103.03</v>
+        <v>102.95</v>
       </c>
       <c r="E87">
-        <v>102.56</v>
+        <v>102.55</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Serie</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1103,7 +1106,7 @@
         <v>86.52</v>
       </c>
       <c r="C39">
-        <v>87.47</v>
+        <v>87.48</v>
       </c>
       <c r="D39">
         <v>98.20999999999999</v>
@@ -1120,7 +1123,7 @@
         <v>86.90000000000001</v>
       </c>
       <c r="C40">
-        <v>88.34999999999999</v>
+        <v>88.36</v>
       </c>
       <c r="D40">
         <v>98.64</v>
@@ -1137,7 +1140,7 @@
         <v>93.70999999999999</v>
       </c>
       <c r="C41">
-        <v>89.31</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="D41">
         <v>106.37</v>
@@ -1188,7 +1191,7 @@
         <v>90.88</v>
       </c>
       <c r="C44">
-        <v>92.22</v>
+        <v>92.23</v>
       </c>
       <c r="D44">
         <v>103.16</v>
@@ -1205,7 +1208,7 @@
         <v>95.69</v>
       </c>
       <c r="C45">
-        <v>91.48999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="D45">
         <v>108.61</v>
@@ -1222,7 +1225,7 @@
         <v>91.20999999999999</v>
       </c>
       <c r="C46">
-        <v>92.98999999999999</v>
+        <v>93</v>
       </c>
       <c r="D46">
         <v>103.53</v>
@@ -1282,7 +1285,7 @@
         <v>99.27</v>
       </c>
       <c r="C49">
-        <v>95.33</v>
+        <v>95.34</v>
       </c>
       <c r="D49">
         <v>112.68</v>
@@ -1302,7 +1305,7 @@
         <v>94.73</v>
       </c>
       <c r="C50">
-        <v>95.23</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="D50">
         <v>107.52</v>
@@ -1382,7 +1385,7 @@
         <v>98.37</v>
       </c>
       <c r="C54">
-        <v>100.6</v>
+        <v>100.61</v>
       </c>
       <c r="D54">
         <v>111.65</v>
@@ -1482,7 +1485,7 @@
         <v>100.63</v>
       </c>
       <c r="C59">
-        <v>101.57</v>
+        <v>101.56</v>
       </c>
       <c r="D59">
         <v>112.98</v>
@@ -1542,7 +1545,7 @@
         <v>99.69</v>
       </c>
       <c r="C62">
-        <v>101.31</v>
+        <v>101.3</v>
       </c>
       <c r="D62">
         <v>113.44</v>
@@ -1622,7 +1625,7 @@
         <v>100.31</v>
       </c>
       <c r="C66">
-        <v>100.78</v>
+        <v>100.79</v>
       </c>
       <c r="D66">
         <v>112.43</v>
@@ -1662,7 +1665,7 @@
         <v>97.73999999999999</v>
       </c>
       <c r="C68">
-        <v>98.39</v>
+        <v>98.38</v>
       </c>
       <c r="D68">
         <v>109.37</v>
@@ -1702,7 +1705,7 @@
         <v>93.84999999999999</v>
       </c>
       <c r="C70">
-        <v>94.73</v>
+        <v>94.73999999999999</v>
       </c>
       <c r="E70">
         <v>96.15000000000001</v>
@@ -1719,7 +1722,7 @@
         <v>96.14</v>
       </c>
       <c r="C71">
-        <v>97.67</v>
+        <v>97.66</v>
       </c>
       <c r="E71">
         <v>95.70999999999999</v>
@@ -1736,7 +1739,7 @@
         <v>100.11</v>
       </c>
       <c r="C72">
-        <v>100.93</v>
+        <v>100.94</v>
       </c>
       <c r="E72">
         <v>96.53</v>
@@ -1770,7 +1773,7 @@
         <v>100.83</v>
       </c>
       <c r="C74">
-        <v>102.47</v>
+        <v>102.49</v>
       </c>
       <c r="E74">
         <v>97.37</v>
@@ -1798,7 +1801,7 @@
         <v>99.54000000000001</v>
       </c>
       <c r="C76">
-        <v>101.3</v>
+        <v>101.29</v>
       </c>
       <c r="E76">
         <v>96.33</v>
@@ -1812,7 +1815,7 @@
         <v>106.27</v>
       </c>
       <c r="C77">
-        <v>102.77</v>
+        <v>102.78</v>
       </c>
       <c r="E77">
         <v>103.49</v>
@@ -1826,7 +1829,7 @@
         <v>98.84</v>
       </c>
       <c r="C78">
-        <v>100.14</v>
+        <v>100.16</v>
       </c>
       <c r="E78">
         <v>97.95999999999999</v>
@@ -1840,7 +1843,7 @@
         <v>100.34</v>
       </c>
       <c r="C79">
-        <v>102.18</v>
+        <v>102.17</v>
       </c>
       <c r="E79">
         <v>97.95999999999999</v>
@@ -1854,7 +1857,7 @@
         <v>100.63</v>
       </c>
       <c r="C80">
-        <v>102.03</v>
+        <v>102.02</v>
       </c>
       <c r="E80">
         <v>97.5</v>
@@ -1882,7 +1885,7 @@
         <v>101.49</v>
       </c>
       <c r="C82">
-        <v>101.79</v>
+        <v>101.81</v>
       </c>
       <c r="E82">
         <v>100.12</v>
@@ -1896,7 +1899,7 @@
         <v>96.06</v>
       </c>
       <c r="C83">
-        <v>97.87</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="E83">
         <v>91.88</v>
@@ -1907,10 +1910,10 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>98.42</v>
+        <v>98.41</v>
       </c>
       <c r="C84">
-        <v>99.03</v>
+        <v>99.02</v>
       </c>
       <c r="E84">
         <v>97.31</v>
@@ -1924,7 +1927,7 @@
         <v>105.11</v>
       </c>
       <c r="C85">
-        <v>101.06</v>
+        <v>101.08</v>
       </c>
       <c r="E85">
         <v>103.69</v>
@@ -1938,7 +1941,7 @@
         <v>100.6</v>
       </c>
       <c r="C86">
-        <v>102.11</v>
+        <v>102.13</v>
       </c>
       <c r="E86">
         <v>100.84</v>
@@ -1952,10 +1955,21 @@
         <v>100.74</v>
       </c>
       <c r="C87">
-        <v>102.95</v>
+        <v>102.93</v>
       </c>
       <c r="E87">
         <v>102.55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>101.29</v>
+      </c>
+      <c r="C88">
+        <v>101.87</v>
       </c>
     </row>
   </sheetData>

--- a/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
+++ b/11/1/4/Índice de producción industrial 2000 a 2021 - Trimestral.xlsx
@@ -1971,6 +1971,9 @@
       <c r="C88">
         <v>101.87</v>
       </c>
+      <c r="E88">
+        <v>108.46</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
